--- a/biology/Botanique/Nigritelle_de_Cornelia/Nigritelle_de_Cornelia.xlsx
+++ b/biology/Botanique/Nigritelle_de_Cornelia/Nigritelle_de_Cornelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnadenia corneliana
 La Nigritelle de Cornelia ou Nigritelle rose ou Gymnadénie de Cornelia (Gymnadenia corneliana) est une orchidée terrestre des Alpes du Sud, appartenant au genre Gymnadenia R. Brown 1813 (précédemment rattachée au genre Nigritella Richard 1817).
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce dédiée à la botaniste suisse Cornelia Rudo qui a récolté le type (en 1925, dans les Hautes-Alpes, au-dessus du col du Lautaret).
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante : petite à robuste, de 10 à 30 cm environ.
 Feuilles : nombreuses, à la base de la plante principalement.
@@ -577,7 +593,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De fin juin à fin juillet.
 </t>
@@ -608,7 +626,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante de moyenne montagne et de pleine lumière, entre 1 500 m et 2 500 m environ, sur pelouses d'alpages calcaires généralement.
 </t>
@@ -639,7 +659,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpes du Sud françaises (jusqu'en Savoie et Haute-Savoie) et italiennes.
 </t>
@@ -670,7 +692,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, espèce protégée régionalement.
 En outre, l'espèce est mentionné sur la liste rouge de l'UICN.
